--- a/data/trans_dic/P16A18-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Dificultad-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -949,7 +949,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A18-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Dificultad-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05811079772300923</v>
+        <v>0.05709623855077748</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07448210304313614</v>
+        <v>0.07324780786058793</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0433588774712064</v>
+        <v>0.04549489114761823</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01477681490131018</v>
+        <v>0.01526580510923587</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1063839007697874</v>
+        <v>0.1039136012384184</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1201670826990257</v>
+        <v>0.1179024067922486</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07674752013834232</v>
+        <v>0.07738758078767448</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05696388875767994</v>
+        <v>0.05654520127392103</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06848727055335345</v>
+        <v>0.06843047705258988</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08442646516002476</v>
+        <v>0.08616999705396709</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0528837750032899</v>
+        <v>0.05270147394460697</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01452813895139814</v>
+        <v>0.01391874549008267</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1099733248054311</v>
+        <v>0.109533338102903</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1291318342335422</v>
+        <v>0.1292879756363534</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09293618888720166</v>
+        <v>0.09060393261613614</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03678391662467305</v>
+        <v>0.03595679562430185</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.07821558158351839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03161808470071815</v>
+        <v>0.03161808470071816</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06989073553696191</v>
+        <v>0.06793026235799673</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07956690700613472</v>
+        <v>0.08222299819877474</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05761998787361419</v>
+        <v>0.05721541833222424</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01856617198978061</v>
+        <v>0.01918607374866328</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.110506062248478</v>
+        <v>0.1107130401649285</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1343256224342284</v>
+        <v>0.1341897473858784</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1032500049925198</v>
+        <v>0.1062235046575648</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05032027043476538</v>
+        <v>0.04720963247809042</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08299215012457398</v>
+        <v>0.08010790957243326</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03517196804549623</v>
+        <v>0.03595380145485884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02081421722154943</v>
+        <v>0.02499137541235216</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0187567460554072</v>
+        <v>0.01886815756462914</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1609132843958842</v>
+        <v>0.1591602825659993</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09284836301778399</v>
+        <v>0.0902797383154673</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06263865080795011</v>
+        <v>0.06987737454225325</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04938858397364305</v>
+        <v>0.0520345657703772</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0780534433697173</v>
+        <v>0.07862408992394987</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08423279678061137</v>
+        <v>0.08249743260440083</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05397188985050572</v>
+        <v>0.05431901700033314</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02230525608276451</v>
+        <v>0.02214060084717005</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1020890905066094</v>
+        <v>0.1018446354432491</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1092973090281679</v>
+        <v>0.1070928057575735</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07380893009102951</v>
+        <v>0.07331179744287145</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03666557532862599</v>
+        <v>0.03671944732795891</v>
       </c>
     </row>
     <row r="19">
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>31898</v>
+        <v>31341</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>59335</v>
+        <v>58352</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>35975</v>
+        <v>37748</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5419</v>
+        <v>5599</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>58396</v>
+        <v>57040</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>95729</v>
+        <v>93925</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>63678</v>
+        <v>64210</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20892</v>
+        <v>20738</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>52220</v>
+        <v>52177</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>62224</v>
+        <v>63509</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>35258</v>
+        <v>35137</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9403</v>
+        <v>9008</v>
       </c>
     </row>
     <row r="11">
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>83852</v>
+        <v>83517</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>95173</v>
+        <v>95288</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>61962</v>
+        <v>60407</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>23807</v>
+        <v>23271</v>
       </c>
     </row>
     <row r="12">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>51019</v>
+        <v>49588</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45808</v>
+        <v>47337</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>28595</v>
+        <v>28394</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12494</v>
+        <v>12911</v>
       </c>
     </row>
     <row r="15">
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>80667</v>
+        <v>80818</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>77334</v>
+        <v>77256</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>51239</v>
+        <v>52715</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33862</v>
+        <v>31769</v>
       </c>
     </row>
     <row r="16">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22828</v>
+        <v>22035</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10922</v>
+        <v>11165</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6880</v>
+        <v>8261</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10746</v>
+        <v>10810</v>
       </c>
     </row>
     <row r="19">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>44262</v>
+        <v>43779</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28832</v>
+        <v>28034</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20704</v>
+        <v>23097</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28295</v>
+        <v>29811</v>
       </c>
     </row>
     <row r="20">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>180806</v>
+        <v>182128</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>203835</v>
+        <v>199636</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>125389</v>
+        <v>126195</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>50405</v>
+        <v>50033</v>
       </c>
     </row>
     <row r="23">
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>236483</v>
+        <v>235917</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>264489</v>
+        <v>259154</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>171475</v>
+        <v>170320</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>82857</v>
+        <v>82978</v>
       </c>
     </row>
     <row r="24">
